--- a/data/ophio_kim_2017.xlsx
+++ b/data/ophio_kim_2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roos_brouns/Dropbox/Ant-fungus/02_scripts/Git_Das_folder2/Das_et_al_2022a/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0749A6FA-B4EF-7E4F-80AE-6559A78D0175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA81863-623B-3C4A-AC8C-A44A02B1D2C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Expression_and_annotations_LD12!$A$1:$AV$334</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3389,10 +3388,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AV334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I317" sqref="I317"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3941,7 +3941,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>782</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>790</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>800</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>898</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>680</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>707</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>732</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>735</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>759</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>823</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>837</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>841</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>842</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>879</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>887</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>911</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>930</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>933</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>939</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>964</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>969</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>995</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>997</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>684</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>701</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>709</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>751</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>784</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>792</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>810</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>820</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>891</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>917</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>927</v>
       </c>
@@ -10776,7 +10776,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>935</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>974</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>979</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>676</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>678</v>
       </c>
@@ -12056,7 +12056,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>691</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>695</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>699</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>703</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>710</v>
       </c>
@@ -12699,7 +12699,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>713</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>725</v>
       </c>
@@ -13202,7 +13202,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>733</v>
       </c>
@@ -13458,7 +13458,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="79" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>741</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>742</v>
       </c>
@@ -13717,7 +13717,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="81" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>745</v>
       </c>
@@ -13848,7 +13848,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="82" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>770</v>
       </c>
@@ -13979,7 +13979,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="83" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>777</v>
       </c>
@@ -14870,7 +14870,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="90" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>798</v>
       </c>
@@ -15135,7 +15135,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="92" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>802</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="95" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>815</v>
       </c>
@@ -15790,7 +15790,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="97" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>845</v>
       </c>
@@ -15906,7 +15906,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="98" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>851</v>
       </c>
@@ -16034,7 +16034,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="99" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>862</v>
       </c>
@@ -16150,7 +16150,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="100" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>864</v>
       </c>
@@ -16412,7 +16412,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="102" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>871</v>
       </c>
@@ -16662,7 +16662,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="104" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>878</v>
       </c>
@@ -16790,7 +16790,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="105" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>882</v>
       </c>
@@ -16918,7 +16918,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="106" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>883</v>
       </c>
@@ -17049,7 +17049,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="107" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>889</v>
       </c>
@@ -17305,7 +17305,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="109" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>894</v>
       </c>
@@ -17439,7 +17439,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="110" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>899</v>
       </c>
@@ -17567,7 +17567,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="111" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>905</v>
       </c>
@@ -17823,7 +17823,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="113" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>910</v>
       </c>
@@ -17948,7 +17948,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="114" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>916</v>
       </c>
@@ -18076,7 +18076,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="115" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>919</v>
       </c>
@@ -18207,7 +18207,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="116" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>923</v>
       </c>
@@ -18332,7 +18332,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="117" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>928</v>
       </c>
@@ -18463,7 +18463,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="118" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>932</v>
       </c>
@@ -18713,7 +18713,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="120" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>936</v>
       </c>
@@ -19091,7 +19091,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="123" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>950</v>
       </c>
@@ -19481,7 +19481,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="126" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>962</v>
       </c>
@@ -19862,7 +19862,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="129" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>991</v>
       </c>
@@ -19996,7 +19996,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="130" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>992</v>
       </c>
@@ -20648,7 +20648,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="135" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>829</v>
       </c>
@@ -20907,7 +20907,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="137" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>672</v>
       </c>
@@ -21038,7 +21038,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="138" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>673</v>
       </c>
@@ -21163,7 +21163,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="139" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>674</v>
       </c>
@@ -21291,7 +21291,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="140" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>679</v>
       </c>
@@ -21422,7 +21422,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="141" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>682</v>
       </c>
@@ -21803,7 +21803,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="144" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>694</v>
       </c>
@@ -22199,7 +22199,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="147" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>700</v>
       </c>
@@ -22327,7 +22327,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="148" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>702</v>
       </c>
@@ -22452,7 +22452,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="149" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>704</v>
       </c>
@@ -22583,7 +22583,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="150" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>715</v>
       </c>
@@ -22976,7 +22976,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="153" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>721</v>
       </c>
@@ -23104,7 +23104,7 @@
         <v>2.2663274900000001</v>
       </c>
     </row>
-    <row r="154" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>723</v>
       </c>
@@ -23500,7 +23500,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="157" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>738</v>
       </c>
@@ -23756,7 +23756,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="159" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>746</v>
       </c>
@@ -24012,7 +24012,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="161" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>750</v>
       </c>
@@ -24274,7 +24274,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="163" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>754</v>
       </c>
@@ -24402,7 +24402,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="164" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>756</v>
       </c>
@@ -24777,7 +24777,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="167" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>764</v>
       </c>
@@ -24908,7 +24908,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="168" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>765</v>
       </c>
@@ -25033,7 +25033,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="169" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>766</v>
       </c>
@@ -25274,7 +25274,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="171" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>768</v>
       </c>
@@ -25536,7 +25536,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="173" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>771</v>
       </c>
@@ -25798,7 +25798,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="175" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>793</v>
       </c>
@@ -25923,7 +25923,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="176" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>794</v>
       </c>
@@ -26057,7 +26057,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="177" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>795</v>
       </c>
@@ -26444,7 +26444,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="180" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>804</v>
       </c>
@@ -26968,7 +26968,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="184" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>817</v>
       </c>
@@ -27099,7 +27099,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="185" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>819</v>
       </c>
@@ -27224,7 +27224,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="186" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>824</v>
       </c>
@@ -27352,7 +27352,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="187" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>827</v>
       </c>
@@ -27483,7 +27483,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="188" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>830</v>
       </c>
@@ -27617,7 +27617,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="189" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>831</v>
       </c>
@@ -28144,7 +28144,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="193" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>836</v>
       </c>
@@ -28269,7 +28269,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="194" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>840</v>
       </c>
@@ -28656,7 +28656,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="197" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>854</v>
       </c>
@@ -28909,7 +28909,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="199" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>861</v>
       </c>
@@ -29037,7 +29037,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="200" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>866</v>
       </c>
@@ -29162,7 +29162,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="201" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>873</v>
       </c>
@@ -29296,7 +29296,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="202" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>875</v>
       </c>
@@ -29555,7 +29555,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="204" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>896</v>
       </c>
@@ -29683,7 +29683,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="205" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>900</v>
       </c>
@@ -29814,7 +29814,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="206" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>902</v>
       </c>
@@ -29948,7 +29948,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="207" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>903</v>
       </c>
@@ -30076,7 +30076,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="208" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>904</v>
       </c>
@@ -30207,7 +30207,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="209" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>906</v>
       </c>
@@ -30341,7 +30341,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="210" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>908</v>
       </c>
@@ -30466,7 +30466,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="211" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>912</v>
       </c>
@@ -30731,7 +30731,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="213" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>914</v>
       </c>
@@ -30865,7 +30865,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="214" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>918</v>
       </c>
@@ -30990,7 +30990,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="215" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>926</v>
       </c>
@@ -31657,7 +31657,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="220" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>949</v>
       </c>
@@ -31910,7 +31910,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="222" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>953</v>
       </c>
@@ -32041,7 +32041,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="223" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>955</v>
       </c>
@@ -32157,7 +32157,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="224" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>961</v>
       </c>
@@ -32288,7 +32288,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="225" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>966</v>
       </c>
@@ -32419,7 +32419,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="226" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>967</v>
       </c>
@@ -32946,7 +32946,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="230" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>978</v>
       </c>
@@ -33339,7 +33339,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="233" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>983</v>
       </c>
@@ -33470,7 +33470,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="234" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>985</v>
       </c>
@@ -33595,7 +33595,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="235" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>987</v>
       </c>
@@ -33860,7 +33860,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="237" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>993</v>
       </c>
@@ -33988,7 +33988,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="238" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>996</v>
       </c>
@@ -34119,7 +34119,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="239" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>999</v>
       </c>
@@ -34253,7 +34253,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="240" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1001</v>
       </c>
@@ -34378,7 +34378,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="241" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>675</v>
       </c>
@@ -34503,7 +34503,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="242" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>779</v>
       </c>
@@ -35003,7 +35003,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="246" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>677</v>
       </c>
@@ -35131,7 +35131,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="247" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>683</v>
       </c>
@@ -35262,7 +35262,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="248" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>685</v>
       </c>
@@ -35390,7 +35390,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="249" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>690</v>
       </c>
@@ -35521,7 +35521,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="250" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>692</v>
       </c>
@@ -35655,7 +35655,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="251" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>693</v>
       </c>
@@ -35786,7 +35786,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="252" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>696</v>
       </c>
@@ -36039,7 +36039,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="254" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>711</v>
       </c>
@@ -36304,7 +36304,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="256" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>714</v>
       </c>
@@ -36432,7 +36432,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="257" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>716</v>
       </c>
@@ -36566,7 +36566,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="258" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>717</v>
       </c>
@@ -36691,7 +36691,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="259" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>722</v>
       </c>
@@ -36947,7 +36947,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="261" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>728</v>
       </c>
@@ -37078,7 +37078,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="262" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>729</v>
       </c>
@@ -37337,7 +37337,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="264" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>734</v>
       </c>
@@ -37468,7 +37468,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="265" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>736</v>
       </c>
@@ -37864,7 +37864,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="268" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>748</v>
       </c>
@@ -37992,7 +37992,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="269" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>755</v>
       </c>
@@ -38376,7 +38376,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="272" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>762</v>
       </c>
@@ -38867,7 +38867,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="276" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>776</v>
       </c>
@@ -39001,7 +39001,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="277" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>783</v>
       </c>
@@ -39135,7 +39135,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="278" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>788</v>
       </c>
@@ -39263,7 +39263,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="279" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>789</v>
       </c>
@@ -39528,7 +39528,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="281" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>811</v>
       </c>
@@ -39659,7 +39659,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="282" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>812</v>
       </c>
@@ -39906,7 +39906,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="284" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>818</v>
       </c>
@@ -40043,7 +40043,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="285" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>825</v>
       </c>
@@ -40177,7 +40177,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="286" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>826</v>
       </c>
@@ -40439,7 +40439,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="288" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>846</v>
       </c>
@@ -40570,7 +40570,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="289" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>847</v>
       </c>
@@ -40960,7 +40960,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="292" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>852</v>
       </c>
@@ -41350,7 +41350,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="295" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>863</v>
       </c>
@@ -41478,7 +41478,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="296" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>865</v>
       </c>
@@ -41609,7 +41609,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="297" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>868</v>
       </c>
@@ -41740,7 +41740,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="298" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>869</v>
       </c>
@@ -42264,7 +42264,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="302" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>877</v>
       </c>
@@ -42395,7 +42395,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="303" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>880</v>
       </c>
@@ -42529,7 +42529,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="304" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>885</v>
       </c>
@@ -42788,7 +42788,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="306" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>892</v>
       </c>
@@ -42919,7 +42919,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="307" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>895</v>
       </c>
@@ -43050,7 +43050,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="308" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>897</v>
       </c>
@@ -43175,7 +43175,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="309" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>907</v>
       </c>
@@ -43309,7 +43309,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="310" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>915</v>
       </c>
@@ -43690,7 +43690,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="313" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>922</v>
       </c>
@@ -44083,7 +44083,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="316" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>937</v>
       </c>
@@ -44214,7 +44214,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="317" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>944</v>
       </c>
@@ -44348,7 +44348,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="318" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>946</v>
       </c>
@@ -44479,7 +44479,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="319" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>947</v>
       </c>
@@ -44610,7 +44610,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="320" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>948</v>
       </c>
@@ -44988,7 +44988,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="323" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>960</v>
       </c>
@@ -45119,7 +45119,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="324" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>965</v>
       </c>
@@ -45247,7 +45247,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="325" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>971</v>
       </c>
@@ -45905,7 +45905,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="330" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>986</v>
       </c>
@@ -46152,7 +46152,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="332" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>998</v>
       </c>
@@ -46549,6 +46549,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AV334" xr:uid="{35BF7594-E801-644A-8273-70AD6FD36C4C}">
+    <filterColumn colId="47">
+      <filters>
+        <filter val="night-active"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AV334">
     <sortCondition ref="O1"/>
   </sortState>
